--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N2">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q2">
-        <v>3.215127333792437</v>
+        <v>7.814495618048445</v>
       </c>
       <c r="R2">
-        <v>3.215127333792437</v>
+        <v>70.330460562436</v>
       </c>
       <c r="S2">
-        <v>0.005712117991159942</v>
+        <v>0.009632239874974014</v>
       </c>
       <c r="T2">
-        <v>0.005712117991159942</v>
+        <v>0.009632239874974012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N3">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q3">
-        <v>6.035810497111114</v>
+        <v>0.8618079554293334</v>
       </c>
       <c r="R3">
-        <v>6.035810497111114</v>
+        <v>7.756271598864</v>
       </c>
       <c r="S3">
-        <v>0.01072345140716788</v>
+        <v>0.001062274695462602</v>
       </c>
       <c r="T3">
-        <v>0.01072345140716788</v>
+        <v>0.001062274695462602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N4">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q4">
-        <v>148.0041488072711</v>
+        <v>11.19127736731867</v>
       </c>
       <c r="R4">
-        <v>148.0041488072711</v>
+        <v>100.721496305868</v>
       </c>
       <c r="S4">
-        <v>0.2629498223235551</v>
+        <v>0.0137945010629236</v>
       </c>
       <c r="T4">
-        <v>0.2629498223235551</v>
+        <v>0.0137945010629236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H5">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I5">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J5">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N5">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q5">
-        <v>277.8505801613747</v>
+        <v>209.1322892332721</v>
       </c>
       <c r="R5">
-        <v>277.8505801613747</v>
+        <v>1882.190603099449</v>
       </c>
       <c r="S5">
-        <v>0.4936399504656377</v>
+        <v>0.2577789372412998</v>
       </c>
       <c r="T5">
-        <v>0.4936399504656377</v>
+        <v>0.2577789372412998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H6">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J6">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N6">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q6">
-        <v>9.956857944667572</v>
+        <v>23.06378804309733</v>
       </c>
       <c r="R6">
-        <v>9.956857944667572</v>
+        <v>207.574092387876</v>
       </c>
       <c r="S6">
-        <v>0.01768973402806795</v>
+        <v>0.02842869837223751</v>
       </c>
       <c r="T6">
-        <v>0.01768973402806795</v>
+        <v>0.02842869837223751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H7">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N7">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q7">
-        <v>18.69217031282548</v>
+        <v>299.5020497377097</v>
       </c>
       <c r="R7">
-        <v>18.69217031282548</v>
+        <v>2695.518447639387</v>
       </c>
       <c r="S7">
-        <v>0.03320922354007433</v>
+        <v>0.369169774624619</v>
       </c>
       <c r="T7">
-        <v>0.03320922354007433</v>
+        <v>0.369169774624619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H8">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I8">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J8">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N8">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q8">
-        <v>11.99113572247769</v>
+        <v>45.01895372065621</v>
       </c>
       <c r="R8">
-        <v>11.99113572247769</v>
+        <v>405.1705834859059</v>
       </c>
       <c r="S8">
-        <v>0.02130390960721663</v>
+        <v>0.05549089568316989</v>
       </c>
       <c r="T8">
-        <v>0.02130390960721663</v>
+        <v>0.05549089568316989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H9">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I9">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J9">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N9">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q9">
-        <v>22.5111528570916</v>
+        <v>4.964836421682666</v>
       </c>
       <c r="R9">
-        <v>22.5111528570916</v>
+        <v>44.68352779514399</v>
       </c>
       <c r="S9">
-        <v>0.03999417375643069</v>
+        <v>0.006119716190409488</v>
       </c>
       <c r="T9">
-        <v>0.03999417375643069</v>
+        <v>0.006119716190409488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H10">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I10">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J10">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N10">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q10">
-        <v>11.1136206557983</v>
+        <v>64.47243974527532</v>
       </c>
       <c r="R10">
-        <v>11.1136206557983</v>
+        <v>580.2519577074779</v>
       </c>
       <c r="S10">
-        <v>0.0197448828317574</v>
+        <v>0.07946949301718202</v>
       </c>
       <c r="T10">
-        <v>0.0197448828317574</v>
+        <v>0.07946949301718202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H11">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I11">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J11">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N11">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q11">
-        <v>20.86377964261021</v>
+        <v>16.69354161300978</v>
       </c>
       <c r="R11">
-        <v>20.86377964261021</v>
+        <v>150.241874517088</v>
       </c>
       <c r="S11">
-        <v>0.03706738759847954</v>
+        <v>0.02057665715596463</v>
       </c>
       <c r="T11">
-        <v>0.03706738759847954</v>
+        <v>0.02057665715596463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H12">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I12">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J12">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N12">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q12">
-        <v>11.33918547443571</v>
+        <v>1.841017983701333</v>
       </c>
       <c r="R12">
-        <v>11.33918547443571</v>
+        <v>16.569161853312</v>
       </c>
       <c r="S12">
-        <v>0.02014562990176277</v>
+        <v>0.00226926057674095</v>
       </c>
       <c r="T12">
-        <v>0.02014562990176277</v>
+        <v>0.00226926057674095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H13">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I13">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J13">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N13">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q13">
-        <v>21.28723612154995</v>
+        <v>23.90711615508267</v>
       </c>
       <c r="R13">
-        <v>21.28723612154995</v>
+        <v>215.164045395744</v>
       </c>
       <c r="S13">
-        <v>0.03781971654868997</v>
+        <v>0.02946819459374545</v>
       </c>
       <c r="T13">
-        <v>0.03781971654868997</v>
+        <v>0.02946819459374545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H14">
+        <v>138.661867</v>
+      </c>
+      <c r="I14">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J14">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.183099</v>
+      </c>
+      <c r="O14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q14">
+        <v>18.22785735398145</v>
+      </c>
+      <c r="R14">
+        <v>164.050716185833</v>
+      </c>
+      <c r="S14">
+        <v>0.02246787291490038</v>
+      </c>
+      <c r="T14">
+        <v>0.02246787291490038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H15">
+        <v>138.661867</v>
+      </c>
+      <c r="I15">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J15">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.043492</v>
+      </c>
+      <c r="N15">
+        <v>0.130476</v>
+      </c>
+      <c r="O15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q15">
+        <v>2.010227306521333</v>
+      </c>
+      <c r="R15">
+        <v>18.092045758692</v>
+      </c>
+      <c r="S15">
+        <v>0.002477829992624914</v>
+      </c>
+      <c r="T15">
+        <v>0.002477829992624914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H16">
+        <v>138.661867</v>
+      </c>
+      <c r="I16">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J16">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.564779</v>
+      </c>
+      <c r="N16">
+        <v>1.694337</v>
+      </c>
+      <c r="O16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q16">
+        <v>26.10443686079767</v>
+      </c>
+      <c r="R16">
+        <v>234.939931747179</v>
+      </c>
+      <c r="S16">
+        <v>0.03217663812666021</v>
+      </c>
+      <c r="T16">
+        <v>0.03217663812666021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>56.330706</v>
+      </c>
+      <c r="H17">
+        <v>168.992118</v>
+      </c>
+      <c r="I17">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J17">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.183099</v>
+      </c>
+      <c r="O17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q17">
+        <v>22.214933979298</v>
+      </c>
+      <c r="R17">
+        <v>199.934405813682</v>
+      </c>
+      <c r="S17">
+        <v>0.02738239079705922</v>
+      </c>
+      <c r="T17">
+        <v>0.02738239079705922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>56.330706</v>
+      </c>
+      <c r="H18">
+        <v>168.992118</v>
+      </c>
+      <c r="I18">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J18">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.043492</v>
+      </c>
+      <c r="N18">
+        <v>0.130476</v>
+      </c>
+      <c r="O18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q18">
+        <v>2.449935065352</v>
+      </c>
+      <c r="R18">
+        <v>22.049415588168</v>
+      </c>
+      <c r="S18">
+        <v>0.003019818985255755</v>
+      </c>
+      <c r="T18">
+        <v>0.003019818985255756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>56.330706</v>
+      </c>
+      <c r="H19">
+        <v>168.992118</v>
+      </c>
+      <c r="I19">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J19">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.564779</v>
+      </c>
+      <c r="N19">
+        <v>1.694337</v>
+      </c>
+      <c r="O19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q19">
+        <v>31.814399803974</v>
+      </c>
+      <c r="R19">
+        <v>286.329598235766</v>
+      </c>
+      <c r="S19">
+        <v>0.03921480609477054</v>
+      </c>
+      <c r="T19">
+        <v>0.03921480609477054</v>
       </c>
     </row>
   </sheetData>
